--- a/DbLayouts/XX-系統/TxToDoMain.xlsx
+++ b/DbLayouts/XX-系統/TxToDoMain.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="222">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -403,10 +403,6 @@
   </si>
   <si>
     <t>產生銀扣扣款失敗</t>
-  </si>
-  <si>
-    <t>昨日留存</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>自動更新</t>
@@ -1109,6 +1105,50 @@
   <si>
     <t>實際功能的執行交易</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTI01</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀扣失敗書面通知單</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4454</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日留存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-留存未處理資料</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-寫入應處理明細留存檔</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y-有自動處理功能，由該交易程式將明細檔狀態更改為已處理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-人工自行處理，明細檔狀態不會變動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-連結處理交易，交易處理後由TxToDoCom共用程式將明細檔狀態更改為已處理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1721,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1916,7 +1956,7 @@
         <v>48</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1926,7 +1966,7 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2010,7 +2050,7 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -2023,7 +2063,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>18</v>
@@ -2033,7 +2073,7 @@
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2041,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>18</v>
@@ -2054,7 +2094,7 @@
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -2199,13 +2239,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="E26" s="42">
         <v>8</v>
@@ -2218,13 +2258,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="D27" s="42" t="s">
         <v>125</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>126</v>
       </c>
       <c r="E27" s="42">
         <v>6</v>
@@ -2237,13 +2277,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>128</v>
-      </c>
       <c r="D28" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="42">
         <v>8</v>
@@ -2256,13 +2296,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="D29" s="42" t="s">
         <v>130</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>131</v>
       </c>
       <c r="E29" s="42">
         <v>6</v>
@@ -2316,10 +2356,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2331,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2350,40 +2390,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>78</v>
-      </c>
       <c r="L1" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2402,45 +2442,45 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>188</v>
-      </c>
       <c r="F3" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>60</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>60</v>
@@ -2455,30 +2495,30 @@
         <v>60</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>60</v>
@@ -2496,13 +2536,13 @@
         <v>60</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>60</v>
@@ -2511,18 +2551,18 @@
         <v>62</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>61</v>
@@ -2534,13 +2574,13 @@
         <v>61</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>60</v>
@@ -2549,18 +2589,18 @@
         <v>63</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>61</v>
@@ -2572,13 +2612,13 @@
         <v>61</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>61</v>
@@ -2587,50 +2627,50 @@
         <v>64</v>
       </c>
       <c r="L7" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>159</v>
-      </c>
       <c r="L8" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>60</v>
@@ -2639,7 +2679,7 @@
         <v>60</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>61</v>
@@ -2648,13 +2688,13 @@
         <v>61</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I9" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>61</v>
@@ -2663,12 +2703,12 @@
         <v>65</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>60</v>
@@ -2677,7 +2717,7 @@
         <v>60</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>61</v>
@@ -2686,13 +2726,13 @@
         <v>61</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>61</v>
@@ -2701,18 +2741,18 @@
         <v>66</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="39" t="s">
         <v>61</v>
@@ -2724,33 +2764,33 @@
         <v>61</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="39" t="s">
         <v>61</v>
@@ -2762,33 +2802,33 @@
         <v>61</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J12" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>170</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>61</v>
@@ -2800,13 +2840,13 @@
         <v>61</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>61</v>
@@ -2815,12 +2855,12 @@
         <v>67</v>
       </c>
       <c r="L13" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>61</v>
@@ -2838,27 +2878,27 @@
         <v>60</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L14" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>61</v>
@@ -2876,27 +2916,27 @@
         <v>60</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K15" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L15" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>61</v>
@@ -2914,33 +2954,33 @@
         <v>60</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L16" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>61</v>
@@ -2952,68 +2992,68 @@
         <v>60</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>60</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="39" t="s">
+      <c r="I18" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>180</v>
-      </c>
       <c r="J18" s="39" t="s">
         <v>60</v>
       </c>
       <c r="K18" s="39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>60</v>
@@ -3028,25 +3068,25 @@
         <v>61</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K19" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>172</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>60</v>
@@ -3055,34 +3095,34 @@
         <v>60</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>61</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>60</v>
@@ -3091,152 +3131,152 @@
         <v>60</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K21" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L22" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>185</v>
-      </c>
       <c r="L23" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>176</v>
-      </c>
       <c r="L24" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>61</v>
@@ -3248,51 +3288,51 @@
         <v>61</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L25" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>61</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>61</v>
@@ -3301,18 +3341,18 @@
         <v>68</v>
       </c>
       <c r="L26" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>61</v>
@@ -3324,13 +3364,13 @@
         <v>61</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>61</v>
@@ -3339,18 +3379,18 @@
         <v>69</v>
       </c>
       <c r="L27" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>61</v>
@@ -3362,13 +3402,13 @@
         <v>61</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H28" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>61</v>
@@ -3377,18 +3417,18 @@
         <v>70</v>
       </c>
       <c r="L28" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>61</v>
@@ -3400,33 +3440,33 @@
         <v>61</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>61</v>
       </c>
       <c r="K29" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L29" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>61</v>
@@ -3438,33 +3478,33 @@
         <v>61</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K30" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L30" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>61</v>
@@ -3476,19 +3516,122 @@
         <v>61</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K31" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="L31" s="45" t="s">
-        <v>208</v>
-      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K32" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" s="45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/DbLayouts/XX-系統/TxToDoMain.xlsx
+++ b/DbLayouts/XX-系統/TxToDoMain.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="225">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1115,10 +1115,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>銀扣失敗書面通知單</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>L4454</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1148,6 +1144,22 @@
   </si>
   <si>
     <t>C-連結處理交易，交易處理後由TxToDoCom共用程式將明細檔狀態更改為已處理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4454</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTI02</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀扣失敗繳息還本通知單</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀扣二扣失敗明信片</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1453,6 +1465,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2371,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2393,7 +2408,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>71</v>
@@ -3535,7 +3550,7 @@
         <v>212</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>119</v>
@@ -3562,76 +3577,114 @@
         <v>119</v>
       </c>
       <c r="K32" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="L32" s="45" t="s">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="39" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="39" t="s">
+      <c r="C33" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="39" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="39"/>
-      <c r="C35" s="39" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="39"/>
-      <c r="C37" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
